--- a/nlp/Goal_Target_Indicator.xlsx
+++ b/nlp/Goal_Target_Indicator.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidan/Desktop/qmss/Fall/G5055_Practicum_Project2-main/nlp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38998AF-4608-8C48-91C2-99939DA031DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A347A-E401-764C-B024-DAD56E3C45DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{D6838375-2563-8349-8A32-5CE0F9EBE89F}"/>
+    <workbookView xWindow="8600" yWindow="1500" windowWidth="25040" windowHeight="14500" xr2:uid="{D6838375-2563-8349-8A32-5CE0F9EBE89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$247</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="434">
   <si>
     <t>Goal</t>
   </si>
@@ -799,12 +802,6 @@
     <t>11.b.2 Proportion of local governments that adopt and implement local disaster risk reduction strategies in line with national disaster risk reduction strategies</t>
   </si>
   <si>
-    <t>11.c Support least developed countries, including through financial and technical assistance, in building sustainable and resilient buildings utilizing local materials</t>
-  </si>
-  <si>
-    <t>No suitable replacement indicator was proposed. The global statistical community is encouraged to work to develop an indicator that could be proposed for the 2025 comprehensive review. See E/CN.3/2020/2, paragraph 23.</t>
-  </si>
-  <si>
     <t>Goal 12. Ensure sustainable consumption and production patterns</t>
   </si>
   <si>
@@ -1183,9 +1180,6 @@
     <t>17.5.1 Number of countries that adopt and implement investment promotion regimes for developing countries, including the least developed countries</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>17.6 Enhance North-South, South-South and triangular regional and international cooperation on and access to science, technology and innovation and enhance knowledge-sharing on mutually agreed terms, including through improved coordination among existing mechanisms, in particular at the United Nations level, and through a global technology facilitation mechanism</t>
   </si>
   <si>
@@ -1255,12 +1249,6 @@
     <t>17.17.1 Amount in United States dollars committed to public-private partnerships for infrastructure</t>
   </si>
   <si>
-    <t>17.18 By 2020, enhance capacity-building support to developing countries, including for least developed countries and small island developing States, to increase significantly the availability of high-quality, timely and reliable data disaggregated by income, gender, age, race, ethnicity, migratory status, disability, geographic location and other characteristics relevant in national contexts</t>
-  </si>
-  <si>
-    <t>17.18.1 Statistical capacity indicator for Sustainable Development Goal monitoring</t>
-  </si>
-  <si>
     <t>17.18.2 Number of countries that have national statistical legislation that complies with the Fundamental Principles of Official Statistics</t>
   </si>
   <si>
@@ -1274,9 +1262,6 @@
   </si>
   <si>
     <t>Index</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <r>
@@ -2554,24 +2539,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2596,14 +2567,6 @@
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2638,12 +2601,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2653,12 +2613,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2978,3847 +2932,3805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F22A9F-EC4A-2349-98AB-9A476462BAC7}">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="2" t="str">
         <f>LEFT(D2,5)</f>
         <v>1.1.1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="2" t="str">
         <f t="shared" ref="A3:A66" si="0">LEFT(D3,5)</f>
         <v>1.2.1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2.2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f>C3</f>
         <v>1.2 By 2030, reduce at least by half the proportion of men, women and children of all ages living in poverty in all its dimensions according to national definitions</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="372" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.3.1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="372" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.4.1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="372" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.4.2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="4" t="str">
         <f>C6</f>
         <v>1.4 By 2030, ensure that all men and women, in particular the poor and the vulnerable, have equal rights to economic resources, as well as access to basic services, ownership and control over land and other forms of property, inheritance, natural resources, appropriate new technology and financial services, including microfinance</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>415</v>
+      <c r="D7" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="str">
+      <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5.1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5.2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="str">
+      <c r="C9" s="4" t="str">
         <f t="shared" ref="C9:C11" si="1">C8</f>
         <v>1.5 By 2030, build the resilience of the poor and those in vulnerable situations and reduce their exposure and vulnerability to climate-related extreme events and other economic, social and environmental shocks and disasters</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="str">
+    <row r="10" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5.3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="str">
+      <c r="C10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1.5 By 2030, build the resilience of the poor and those in vulnerable situations and reduce their exposure and vulnerability to climate-related extreme events and other economic, social and environmental shocks and disasters</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5.4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="str">
+      <c r="C11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>1.5 By 2030, build the resilience of the poor and those in vulnerable situations and reduce their exposure and vulnerability to climate-related extreme events and other economic, social and environmental shocks and disasters</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="372" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="str">
+    <row r="12" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.a.1</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="372" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.a.2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="4" t="str">
         <f>C12</f>
         <v>1.a Ensure significant mobilization of resources from a variety of sources, including through enhanced development cooperation, in order to provide adequate and predictable means for developing countries, in particular least developed countries, to implement programmes and policies to end poverty in all its dimensions</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.b.1</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="str">
+      <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.1.1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="str">
+      <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.1.2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="4" t="str">
         <f>C15</f>
         <v>2.1 By 2030, end hunger and ensure access by all people, in particular the poor and people in vulnerable situations, including infants, to safe, nutritious and sufficient food all year round</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="str">
+    <row r="17" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.2.1</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="str">
+    <row r="18" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.2.2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="4" t="str">
         <f t="shared" ref="C18:C19" si="2">C17</f>
         <v>2.2 By 2030, end all forms of malnutrition, including achieving, by 2025, the internationally agreed targets on stunting and wasting in children under 5 years of age, and address the nutritional needs of adolescent girls, pregnant and lactating women and older persons</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="str">
+    <row r="19" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.2.3</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>2.2 By 2030, end all forms of malnutrition, including achieving, by 2025, the internationally agreed targets on stunting and wasting in children under 5 years of age, and address the nutritional needs of adolescent girls, pregnant and lactating women and older persons</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="str">
+    <row r="20" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.3.1</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="str">
+    <row r="21" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.3.2</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" s="4" t="str">
         <f>C20</f>
         <v>2.3 By 2030, double the agricultural productivity and incomes of small-scale food producers, in particular women, indigenous peoples, family farmers, pastoralists and fishers, including through secure and equal access to land, other productive resources and inputs, knowledge, financial services, markets and opportunities for value addition and non-farm employment</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="str">
+      <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.4.1</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="str">
+    <row r="23" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.5.1</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="str">
+      <c r="D23" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.5.2</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C24" s="4" t="str">
         <f>C23</f>
         <v>2.5 By 2020, maintain the genetic diversity of seeds, cultivated plants and farmed and domesticated animals and their related wild species, including through soundly managed and diversified seed and plant banks at the national, regional and international levels, and promote access to and fair and equitable sharing of benefits arising from the utilization of genetic resources and associated traditional knowledge, as internationally agreed</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="str">
+      <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.a.1</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="str">
+      <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.a.2</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C26" s="4" t="str">
         <f>C25</f>
         <v>2.a Increase investment, including through enhanced international cooperation, in rural infrastructure, agricultural research and extension services, technology development and plant and livestock gene banks in order to enhance agricultural productive capacity in developing countries, in particular least developed countries</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="str">
+      <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.b.1</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="str">
+      <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.c.1</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="str">
+      <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.1.1</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="str">
+      <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.1.2</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="5" t="str">
+      <c r="C30" s="4" t="str">
         <f>C29</f>
         <v>3.1 By 2030, reduce the global maternal mortality ratio to less than 70 per 100,000 live births</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="str">
+    <row r="31" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.2.1</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="str">
+    <row r="32" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.2.2</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C32" s="4" t="str">
         <f>C31</f>
         <v>3.2 By 2030, end preventable deaths of newborns and children under 5 years of age, with all countries aiming to reduce neonatal mortality to at least as low as 12 per 1,000 live births and under‑5 mortality to at least as low as 25 per 1,000 live births</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="str">
+      <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.1</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="str">
+      <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.2</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="5" t="str">
+      <c r="C34" s="4" t="str">
         <f t="shared" ref="C34:C37" si="3">C33</f>
         <v>3.3 By 2030, end the epidemics of AIDS, tuberculosis, malaria and neglected tropical diseases and combat hepatitis, water-borne diseases and other communicable diseases</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="str">
+      <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.3</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="5" t="str">
+      <c r="C35" s="4" t="str">
         <f t="shared" si="3"/>
         <v>3.3 By 2030, end the epidemics of AIDS, tuberculosis, malaria and neglected tropical diseases and combat hepatitis, water-borne diseases and other communicable diseases</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="str">
+      <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.4</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="5" t="str">
+      <c r="C36" s="4" t="str">
         <f t="shared" si="3"/>
         <v>3.3 By 2030, end the epidemics of AIDS, tuberculosis, malaria and neglected tropical diseases and combat hepatitis, water-borne diseases and other communicable diseases</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="str">
+      <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.5</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="5" t="str">
+      <c r="C37" s="4" t="str">
         <f t="shared" si="3"/>
         <v>3.3 By 2030, end the epidemics of AIDS, tuberculosis, malaria and neglected tropical diseases and combat hepatitis, water-borne diseases and other communicable diseases</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="str">
+      <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.4.1</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="str">
+      <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.4.2</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="5" t="str">
+      <c r="C39" s="4" t="str">
         <f>C38</f>
         <v>3.4 By 2030, reduce by one third premature mortality from non-communicable diseases through prevention and treatment and promote mental health and well-being</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="str">
+      <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.5.1</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="str">
+      <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.5.2</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="5" t="str">
+      <c r="C41" s="4" t="str">
         <f>C40</f>
         <v>3.5 Strengthen the prevention and treatment of substance abuse, including narcotic drug abuse and harmful use of alcohol</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="str">
+      <c r="A42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.6.1</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="str">
+    <row r="43" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.7.1</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="str">
+    <row r="44" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.7.2</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="5" t="str">
+      <c r="C44" s="4" t="str">
         <f>C43</f>
         <v>3.7 By 2030, ensure universal access to sexual and reproductive health-care services, including for family planning, information and education, and the integration of reproductive health into national strategies and programmes</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="str">
+      <c r="A45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.8.1</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="str">
+      <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.8.2</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="5" t="str">
+      <c r="C46" s="4" t="str">
         <f>C45</f>
         <v>3.8 Achieve universal health coverage, including financial risk protection, access to quality essential health-care services and access to safe, effective, quality and affordable essential medicines and vaccines for all</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="str">
+      <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.9.1</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="str">
+      <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.9.2</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="5" t="str">
+      <c r="C48" s="4" t="str">
         <f t="shared" ref="C48:C49" si="4">C47</f>
         <v>3.9 By 2030, substantially reduce the number of deaths and illnesses from hazardous chemicals and air, water and soil pollution and contamination</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="str">
+      <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.9.3</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="5" t="str">
+      <c r="C49" s="4" t="str">
         <f t="shared" si="4"/>
         <v>3.9 By 2030, substantially reduce the number of deaths and illnesses from hazardous chemicals and air, water and soil pollution and contamination</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="str">
+    <row r="50" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.a.1</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="str">
+    <row r="51" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.b.1</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="str">
+    <row r="52" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.b.2</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="5" t="str">
+      <c r="C52" s="4" t="str">
         <f t="shared" ref="C52:C53" si="5">C51</f>
         <v>3.b Support the research and development of vaccines and medicines for the communicable and non‑communicable diseases that primarily affect developing countries, provide access to affordable essential medicines and vaccines, in accordance with the Doha Declaration on the TRIPS Agreement and Public Health, which affirms the right of developing countries to use to the full the provisions in the Agreement on Trade-Related Aspects of Intellectual Property Rights regarding flexibilities to protect public health, and, in particular, provide access to medicines for all</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="str">
+    <row r="53" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.b.3</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="5" t="str">
+      <c r="C53" s="4" t="str">
         <f t="shared" si="5"/>
         <v>3.b Support the research and development of vaccines and medicines for the communicable and non‑communicable diseases that primarily affect developing countries, provide access to affordable essential medicines and vaccines, in accordance with the Doha Declaration on the TRIPS Agreement and Public Health, which affirms the right of developing countries to use to the full the provisions in the Agreement on Trade-Related Aspects of Intellectual Property Rights regarding flexibilities to protect public health, and, in particular, provide access to medicines for all</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="str">
+      <c r="A54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.c.1</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="str">
+      <c r="A55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.d.1</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="str">
+      <c r="A56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.d.2</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="5" t="str">
+      <c r="C56" s="4" t="str">
         <f>C55</f>
         <v>3.d Strengthen the capacity of all countries, in particular developing countries, for early warning, risk reduction and management of national and global health risks</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="str">
+      <c r="A57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.1.1</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>417</v>
+      <c r="D57" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="str">
+      <c r="A58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.1.2</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="5" t="str">
+      <c r="C58" s="4" t="str">
         <f>C57</f>
         <v>4.1 By 2030, ensure that all girls and boys complete free, equitable and quality primary and secondary education leading to relevant and effective learning outcomes</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="str">
+      <c r="A59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.2.1</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="str">
+      <c r="A60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.2.2</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="5" t="str">
+      <c r="C60" s="4" t="str">
         <f>C59</f>
         <v>4.2 By 2030, ensure that all girls and boys have access to quality early childhood development, care and pre‑primary education so that they are ready for primary education</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="str">
+      <c r="A61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.3.1</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="str">
+      <c r="A62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.4.1</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="str">
+      <c r="A63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.5.1</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="str">
+      <c r="A64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.6.1</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="str">
+      <c r="D64" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.7.1</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>419</v>
+      <c r="D65" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="str">
+      <c r="A66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.a.1</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="str">
+    <row r="67" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="str">
         <f t="shared" ref="A67:A127" si="6">LEFT(D67,5)</f>
         <v>4.b.1</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="str">
+      <c r="A68" s="2" t="str">
         <f t="shared" si="6"/>
         <v>4.c.1</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="str">
+    <row r="69" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.1.1</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="str">
+    <row r="70" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.2.1</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="str">
+    <row r="71" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.2.2</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="5" t="str">
+      <c r="C71" s="4" t="str">
         <f>C70</f>
         <v>5.2 Eliminate all forms of violence against all women and girls in the public and private spheres, including trafficking and sexual and other types of exploitation</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="str">
+    <row r="72" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.3.1</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="str">
+    <row r="73" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.3.2</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="5" t="str">
+      <c r="C73" s="4" t="str">
         <f>C72</f>
         <v>5.3 Eliminate all harmful practices, such as child, early and forced marriage and female genital mutilation</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="289" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="str">
+      <c r="A74" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.4.1</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="str">
+    <row r="75" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.5.1</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="str">
+      <c r="D75" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.5.2</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="5" t="str">
+      <c r="C76" s="4" t="str">
         <f>C75</f>
         <v>5.5 Ensure women’s full and effective participation and equal opportunities for leadership at all levels of decision-making in political, economic and public life</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="str">
+    <row r="77" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.6.1</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="str">
+    <row r="78" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.6.2</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C78" s="5" t="str">
+      <c r="C78" s="4" t="str">
         <f>C77</f>
         <v>5.6 Ensure universal access to sexual and reproductive health and reproductive rights as agreed in accordance with the Programme of Action of the International Conference on Population and Development and the Beijing Platform for Action and the outcome documents of their review conferences</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="str">
+      <c r="A79" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.a.1</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="str">
+      <c r="D79" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.a.2</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="5" t="str">
+      <c r="C80" s="4" t="str">
         <f>C79</f>
         <v>5.a Undertake reforms to give women equal rights to economic resources, as well as access to ownership and control over land and other forms of property, financial services, inheritance and natural resources, in accordance with national laws</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="str">
+      <c r="A81" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.b.1</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="str">
+    <row r="82" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.c.1</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="str">
+      <c r="A83" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.1.1</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="str">
+      <c r="A84" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.2.1</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>422</v>
+      <c r="D84" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="str">
+      <c r="A85" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.3.1</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="str">
+      <c r="A86" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.3.2</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C86" s="5" t="str">
+      <c r="C86" s="4" t="str">
         <f>C85</f>
         <v>6.3 By 2030, improve water quality by reducing pollution, eliminating dumping and minimizing release of hazardous chemicals and materials, halving the proportion of untreated wastewater and substantially increasing recycling and safe reuse globally</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="289" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="str">
+      <c r="A87" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.4.1</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="289" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="str">
+      <c r="A88" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.4.2</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="5" t="str">
+      <c r="C88" s="4" t="str">
         <f>C87</f>
         <v>6.4 By 2030, substantially increase water-use efficiency across all sectors and ensure sustainable withdrawals and supply of freshwater to address water scarcity and substantially reduce the number of people suffering from water scarcity</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="str">
+      <c r="A89" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.5.1</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="str">
+      <c r="A90" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.5.2</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C90" s="5" t="str">
+      <c r="C90" s="4" t="str">
         <f>C89</f>
         <v>6.5 By 2030, implement integrated water resources management at all levels, including through transboundary cooperation as appropriate</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="str">
+      <c r="A91" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.6.1</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="str">
+      <c r="A92" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.a.1</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="str">
+      <c r="A93" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.b.1</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="str">
+      <c r="A94" s="2" t="str">
         <f t="shared" si="6"/>
         <v>7.1.1</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="str">
+      <c r="A95" s="2" t="str">
         <f t="shared" si="6"/>
         <v>7.1.2</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C95" s="5" t="str">
+      <c r="C95" s="4" t="str">
         <f>C94</f>
         <v>7.1 By 2030, ensure universal access to affordable, reliable and modern energy services</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="str">
+      <c r="A96" s="2" t="str">
         <f t="shared" si="6"/>
         <v>7.2.1</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="str">
+      <c r="A97" s="2" t="str">
         <f t="shared" si="6"/>
         <v>7.3.1</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="str">
+      <c r="A98" s="2" t="str">
         <f t="shared" si="6"/>
         <v>7.a.1</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="372" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="str">
+      <c r="A99" s="2" t="str">
         <f t="shared" si="6"/>
         <v>7.b.1</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="str">
+      <c r="A100" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.1.1</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="str">
+      <c r="A101" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.2.1</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="str">
+      <c r="A102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.3.1</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="388" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="str">
+    <row r="103" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.4.1</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="388" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="str">
+    <row r="104" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.4.2</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C104" s="5" t="str">
+      <c r="C104" s="4" t="str">
         <f>C103</f>
         <v>8.4 Improve progressively, through 2030, global resource efficiency in consumption and production and endeavour to decouple economic growth from environmental degradation, in accordance with the 10‑Year Framework of Programmes on Sustainable Consumption and Production, with developed countries taking the lead</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="str">
+      <c r="A105" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.5.1</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="str">
+      <c r="A106" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.5.2</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C106" s="5" t="str">
+      <c r="C106" s="4" t="str">
         <f>C105</f>
         <v>8.5 By 2030, achieve full and productive employment and decent work for all women and men, including for young people and persons with disabilities, and equal pay for work of equal value</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="str">
+      <c r="A107" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.6.1</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="str">
+    <row r="108" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.7.1</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="str">
+      <c r="A109" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.8.1</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="str">
+      <c r="A110" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.8.2</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C110" s="5" t="str">
+      <c r="C110" s="4" t="str">
         <f>C109</f>
         <v>8.8 Protect labour rights and promote safe and secure working environments for all workers, including migrant workers, in particular women migrants, and those in precarious employment</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="str">
+      <c r="A111" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.9.1</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="str">
+      <c r="A112" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.10.</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>423</v>
+      <c r="D112" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="str">
+      <c r="A113" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.10.</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C113" s="5" t="str">
+      <c r="C113" s="4" t="str">
         <f>C112</f>
         <v>8.10 Strengthen the capacity of domestic financial institutions to encourage and expand access to banking, insurance and financial services for all</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="str">
+      <c r="A114" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.a.1</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="str">
+      <c r="A115" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.b.1</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="str">
+    <row r="116" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.1.1</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="str">
+      <c r="A117" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.1.2</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C117" s="5" t="str">
+      <c r="C117" s="4" t="str">
         <f>C116</f>
         <v>9.1 Develop quality, reliable, sustainable and resilient infrastructure, including regional and transborder infrastructure, to support economic development and human well-being, with a focus on affordable and equitable access for all</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="str">
+    <row r="118" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.2.1</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="str">
+    <row r="119" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.2.2</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C119" s="5" t="str">
+      <c r="C119" s="4" t="str">
         <f>C118</f>
         <v>9.2 Promote inclusive and sustainable industrialization and, by 2030, significantly raise industry’s share of employment and gross domestic product, in line with national circumstances, and double its share in least developed countries</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="str">
+      <c r="A120" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.3.1</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="str">
+      <c r="A121" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.3.2</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C121" s="5" t="str">
+      <c r="C121" s="4" t="str">
         <f>C120</f>
         <v>9.3 Increase the access of small-scale industrial and other enterprises, in particular in developing countries, to financial services, including affordable credit, and their integration into value chains and markets</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="str">
+      <c r="A122" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.4.1</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="str">
+      <c r="D122" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.5.1</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="str">
+    <row r="124" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.5.2</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C124" s="5" t="str">
+      <c r="C124" s="4" t="str">
         <f>C123</f>
         <v>9.5 Enhance scientific research, upgrade the technological capabilities of industrial sectors in all countries, in particular developing countries, including, by 2030, encouraging innovation and substantially increasing the number of research and development workers per 1 million people and public and private research and development spending</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="str">
+      <c r="A125" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.a.1</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="289" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="str">
+      <c r="A126" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.b.1</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="str">
+      <c r="A127" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.c.1</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="str">
+    <row r="128" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="str">
         <f>LEFT(D128,6)</f>
         <v>10.1.1</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="str">
-        <f t="shared" ref="A129:A192" si="7">LEFT(D129,6)</f>
+    <row r="129" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="str">
+        <f t="shared" ref="A129:A191" si="7">LEFT(D129,6)</f>
         <v>10.2.1</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="str">
+    <row r="130" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.3.1</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="str">
+      <c r="A131" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.4.1</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="str">
+      <c r="A132" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.4.2</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="5" t="str">
+      <c r="C132" s="4" t="str">
         <f>C131</f>
         <v>10.4 Adopt policies, especially fiscal, wage and social protection policies, and progressively achieve greater equality</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>425</v>
+      <c r="D132" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="str">
+      <c r="A133" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.5.1</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="str">
+      <c r="A134" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.6.1</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="str">
+      <c r="A135" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.7.1</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="str">
+      <c r="A136" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.7.2</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C136" s="5" t="str">
+      <c r="C136" s="4" t="str">
         <f t="shared" ref="C136:C138" si="8">C135</f>
         <v>10.7 Facilitate orderly, safe, regular and responsible migration and mobility of people, including through the implementation of planned and well-managed migration policies</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="str">
+      <c r="A137" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.7.3</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C137" s="5" t="str">
+      <c r="C137" s="4" t="str">
         <f t="shared" si="8"/>
         <v>10.7 Facilitate orderly, safe, regular and responsible migration and mobility of people, including through the implementation of planned and well-managed migration policies</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="str">
+      <c r="A138" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.7.4</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C138" s="5" t="str">
+      <c r="C138" s="4" t="str">
         <f t="shared" si="8"/>
         <v>10.7 Facilitate orderly, safe, regular and responsible migration and mobility of people, including through the implementation of planned and well-managed migration policies</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="str">
+      <c r="A139" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.a.1</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="388" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="str">
+      <c r="A140" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.b.1</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="str">
+    <row r="141" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.c.1</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="str">
+      <c r="A142" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.1.1</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="str">
+      <c r="A143" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.2.1</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="str">
+      <c r="A144" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.3.1</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="str">
+      <c r="A145" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.3.2</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C145" s="5" t="str">
+      <c r="C145" s="4" t="str">
         <f>C144</f>
         <v>11.3 By 2030, enhance inclusive and sustainable urbanization and capacity for participatory, integrated and sustainable human settlement planning and management in all countries</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="388" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="str">
+    <row r="146" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.4.1</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="str">
+      <c r="A147" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.5.1</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="str">
+      <c r="A148" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.5.2</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C148" s="5" t="str">
+      <c r="C148" s="4" t="str">
         <f>C147</f>
         <v>11.5 By 2030, significantly reduce the number of deaths and the number of people affected and substantially decrease the direct economic losses relative to global gross domestic product caused by disasters, including water-related disasters, with a focus on protecting the poor and people in vulnerable situations</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="str">
+      <c r="A149" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.6.1</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="str">
+    <row r="150" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.6.2</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C150" s="5" t="str">
+      <c r="C150" s="4" t="str">
         <f>C149</f>
         <v>11.6 By 2030, reduce the adverse per capita environmental impact of cities, including by paying special attention to air quality and municipal and other waste management</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="str">
+      <c r="A151" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.7.1</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="str">
+      <c r="A152" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.7.2</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C152" s="5" t="str">
+      <c r="C152" s="4" t="str">
         <f>C151</f>
         <v>11.7 By 2030, provide universal access to safe, inclusive and accessible, green and public spaces, in particular for women and children, older persons and persons with disabilities</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="str">
+      <c r="A153" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.a.1</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="str">
+      <c r="D153" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.b.1</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="str">
+    <row r="155" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.b.2</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C155" s="5" t="str">
+      <c r="C155" s="4" t="str">
         <f>C154</f>
         <v>11.b By 2020, substantially increase the number of cities and human settlements adopting and implementing integrated policies and plans towards inclusion, resource efficiency, mitigation and adaptation to climate change, resilience to disasters, and develop and implement, in line with the Sendai Framework for Disaster Risk Reduction 2015–2030, holistic disaster risk management at all levels</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="323" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="str">
+    <row r="156" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.1.1</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B156" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D157" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="str">
+    </row>
+    <row r="157" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.2.1</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="str">
+      <c r="B157" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.2.2</v>
       </c>
-      <c r="B159" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C159" s="5" t="str">
-        <f>C158</f>
+      <c r="B158" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C158" s="4" t="str">
+        <f>C157</f>
         <v>12.2 By 2030, achieve the sustainable management and efficient use of natural resources</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="str">
+      <c r="D158" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.3.1</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="str">
+      <c r="B159" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.4.1</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="str">
+      <c r="B160" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.4.2</v>
       </c>
-      <c r="B162" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C162" s="5" t="str">
-        <f>C161</f>
+      <c r="B161" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" s="4" t="str">
+        <f>C160</f>
         <v>12.4 By 2020, achieve the environmentally sound management of chemicals and all wastes throughout their life cycle, in accordance with agreed international frameworks, and significantly reduce their release to air, water and soil in order to minimize their adverse impacts on human health and the environment</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="str">
+      <c r="D161" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.5.1</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="str">
+      <c r="B162" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.6.1</v>
       </c>
-      <c r="B164" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="136" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="str">
+      <c r="B163" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.7.1</v>
       </c>
-      <c r="B165" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="str">
+      <c r="B164" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.8.1</v>
       </c>
-      <c r="B166" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="str">
+      <c r="B165" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.a.1</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="str">
+      <c r="B166" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.b.1</v>
       </c>
-      <c r="B168" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="str">
+      <c r="B167" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="str">
         <f t="shared" si="7"/>
         <v>12.c.1</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="187" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="str">
+      <c r="B168" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="str">
         <f t="shared" si="7"/>
         <v>13.1.1</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B169" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="str">
+    </row>
+    <row r="170" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="str">
         <f t="shared" si="7"/>
         <v>13.1.2</v>
       </c>
-      <c r="B171" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C171" s="5" t="str">
-        <f t="shared" ref="C171:C172" si="9">C170</f>
+      <c r="B170" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C170" s="4" t="str">
+        <f t="shared" ref="C170:C171" si="9">C169</f>
         <v>13.1 Strengthen resilience and adaptive capacity to climate-related hazards and natural disasters in all countries</v>
       </c>
-      <c r="D171" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="str">
+      <c r="D170" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="str">
         <f t="shared" si="7"/>
         <v>13.1.3</v>
       </c>
-      <c r="B172" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C172" s="5" t="str">
+      <c r="B171" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C171" s="4" t="str">
         <f t="shared" si="9"/>
         <v>13.1 Strengthen resilience and adaptive capacity to climate-related hazards and natural disasters in all countries</v>
       </c>
-      <c r="D172" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="str">
+      <c r="D171" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="str">
         <f t="shared" si="7"/>
         <v>13.2.1</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="str">
+      <c r="B172" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="str">
         <f t="shared" si="7"/>
         <v>13.2.2</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C174" s="5" t="str">
-        <f>C173</f>
+      <c r="B173" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C173" s="4" t="str">
+        <f>C172</f>
         <v>13.2 Integrate climate change measures into national policies, strategies and planning</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="306" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="str">
+      <c r="D173" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="str">
         <f t="shared" si="7"/>
         <v>13.3.1</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="str">
+      <c r="B174" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="str">
         <f t="shared" si="7"/>
         <v>13.a.1</v>
       </c>
-      <c r="B176" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="str">
+      <c r="B175" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="str">
         <f t="shared" si="7"/>
         <v>13.b.1</v>
       </c>
-      <c r="B177" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="str">
+      <c r="B176" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.1.1</v>
       </c>
-      <c r="B178" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="str">
+      <c r="B177" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.2.1</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B178" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="str">
+      <c r="D178" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.3.1</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="404" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="str">
+      <c r="B179" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.4.1</v>
       </c>
-      <c r="B181" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="str">
+      <c r="B180" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.5.1</v>
       </c>
-      <c r="B182" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="str">
+      <c r="B181" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="343" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.6.1</v>
       </c>
-      <c r="B183" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="str">
+      <c r="B182" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.7.1</v>
       </c>
-      <c r="B184" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="str">
+      <c r="B183" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.a.1</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="str">
+      <c r="B184" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.b.1</v>
       </c>
-      <c r="B186" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="str">
+      <c r="B185" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="str">
         <f t="shared" si="7"/>
         <v>14.c.1</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="str">
+      <c r="B186" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="str">
         <f t="shared" si="7"/>
         <v>15.1.1</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B187" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="str">
+    </row>
+    <row r="188" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="str">
         <f t="shared" si="7"/>
         <v>15.1.2</v>
       </c>
-      <c r="B189" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C189" s="5" t="str">
-        <f>C188</f>
+      <c r="B188" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C188" s="4" t="str">
+        <f>C187</f>
         <v>15.1 By 2020, ensure the conservation, restoration and sustainable use of terrestrial and inland freshwater ecosystems and their services, in particular forests, wetlands, mountains and drylands, in line with obligations under international agreements</v>
       </c>
-      <c r="D189" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="str">
+      <c r="D188" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="str">
         <f t="shared" si="7"/>
         <v>15.2.1</v>
       </c>
-      <c r="B190" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="str">
+      <c r="B189" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="str">
         <f t="shared" si="7"/>
         <v>15.3.1</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="str">
+      <c r="B190" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="str">
         <f t="shared" si="7"/>
         <v>15.4.1</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C192" s="5" t="s">
+      <c r="B191" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="str">
+        <f t="shared" ref="A192:A220" si="10">LEFT(D192,6)</f>
+        <v>15.4.2</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C192" s="4" t="str">
+        <f>C191</f>
+        <v>15.4 By 2030, ensure the conservation of mountain ecosystems, including their biodiversity, in order to enhance their capacity to provide benefits that are essential for sustainable development</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>320</v>
-      </c>
     </row>
     <row r="193" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="str">
-        <f t="shared" ref="A193:A221" si="10">LEFT(D193,6)</f>
-        <v>15.4.2</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C193" s="5" t="str">
-        <f>C192</f>
-        <v>15.4 By 2030, ensure the conservation of mountain ecosystems, including their biodiversity, in order to enhance their capacity to provide benefits that are essential for sustainable development</v>
-      </c>
-      <c r="D193" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="str">
+      <c r="A193" s="2" t="str">
         <f t="shared" si="10"/>
         <v>15.5.1</v>
       </c>
-      <c r="B194" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="str">
+      <c r="B193" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="str">
         <f t="shared" si="10"/>
         <v>15.6.1</v>
       </c>
-      <c r="B195" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="str">
+      <c r="B194" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="str">
         <f t="shared" si="10"/>
         <v>15.7.1</v>
       </c>
-      <c r="B196" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="str">
+      <c r="B195" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="str">
         <f t="shared" si="10"/>
         <v>15.8.1</v>
       </c>
-      <c r="B197" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="str">
+      <c r="B196" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="str">
         <f t="shared" si="10"/>
         <v>15.9.1</v>
       </c>
-      <c r="B198" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="str">
+      <c r="B197" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="str">
         <f t="shared" si="10"/>
         <v>15.a.1</v>
       </c>
-      <c r="B199" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="str">
+      <c r="B198" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="str">
         <f t="shared" si="10"/>
         <v>15.b.1</v>
       </c>
-      <c r="B200" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="str">
+      <c r="B199" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="str">
         <f t="shared" si="10"/>
         <v>15.c.1</v>
       </c>
-      <c r="B201" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="str">
+      <c r="B200" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.1.1</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B201" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="str">
+    </row>
+    <row r="202" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.1.2</v>
       </c>
-      <c r="B203" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C203" s="5" t="str">
-        <f t="shared" ref="C203:C205" si="11">C202</f>
+      <c r="B202" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C202" s="4" t="str">
+        <f t="shared" ref="C202:C204" si="11">C201</f>
         <v>16.1 Significantly reduce all forms of violence and related death rates everywhere</v>
       </c>
-      <c r="D203" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="str">
+      <c r="D202" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.1.3</v>
       </c>
-      <c r="B204" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C204" s="5" t="str">
+      <c r="B203" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C203" s="4" t="str">
         <f t="shared" si="11"/>
         <v>16.1 Significantly reduce all forms of violence and related death rates everywhere</v>
       </c>
-      <c r="D204" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="str">
+      <c r="D203" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.1.4</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C205" s="5" t="str">
+      <c r="B204" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C204" s="4" t="str">
         <f t="shared" si="11"/>
         <v>16.1 Significantly reduce all forms of violence and related death rates everywhere</v>
       </c>
-      <c r="D205" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="str">
+      <c r="D204" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.2.1</v>
       </c>
-      <c r="B206" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C206" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="str">
+      <c r="B205" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.2.2</v>
       </c>
-      <c r="B207" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C207" s="5" t="str">
-        <f t="shared" ref="C207:C208" si="12">C206</f>
+      <c r="B206" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C206" s="4" t="str">
+        <f t="shared" ref="C206:C207" si="12">C205</f>
         <v>16.2 End abuse, exploitation, trafficking and all forms of violence against and torture of children</v>
       </c>
-      <c r="D207" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="str">
+      <c r="D206" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.2.3</v>
       </c>
-      <c r="B208" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C208" s="5" t="str">
+      <c r="B207" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C207" s="4" t="str">
         <f t="shared" si="12"/>
         <v>16.2 End abuse, exploitation, trafficking and all forms of violence against and torture of children</v>
       </c>
-      <c r="D208" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="str">
+      <c r="D207" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.3.1</v>
       </c>
-      <c r="B209" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="str">
+      <c r="B208" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.3.2</v>
       </c>
-      <c r="B210" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C210" s="5" t="str">
-        <f t="shared" ref="C210:C211" si="13">C209</f>
+      <c r="B209" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C209" s="4" t="str">
+        <f t="shared" ref="C209:C210" si="13">C208</f>
         <v>16.3 Promote the rule of law at the national and international levels and ensure equal access to justice for all</v>
       </c>
-      <c r="D210" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="str">
+      <c r="D209" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.3.3</v>
       </c>
-      <c r="B211" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C211" s="5" t="str">
+      <c r="B210" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C210" s="4" t="str">
         <f t="shared" si="13"/>
         <v>16.3 Promote the rule of law at the national and international levels and ensure equal access to justice for all</v>
       </c>
-      <c r="D211" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="str">
+      <c r="D210" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.4.1</v>
       </c>
-      <c r="B212" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="str">
+      <c r="B211" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.4.2</v>
       </c>
-      <c r="B213" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C213" s="5" t="str">
-        <f>C212</f>
+      <c r="B212" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C212" s="4" t="str">
+        <f>C211</f>
         <v>16.4 By 2030, significantly reduce illicit financial and arms flows, strengthen the recovery and return of stolen assets and combat all forms of organized crime</v>
       </c>
-      <c r="D213" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="str">
+      <c r="D212" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.5.1</v>
       </c>
-      <c r="B214" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="str">
+      <c r="B213" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.5.2</v>
       </c>
-      <c r="B215" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C215" s="5" t="str">
-        <f>C214</f>
+      <c r="B214" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C214" s="4" t="str">
+        <f>C213</f>
         <v>16.5 Substantially reduce corruption and bribery in all their forms</v>
       </c>
-      <c r="D215" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="str">
+      <c r="D214" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.6.1</v>
       </c>
-      <c r="B216" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D216" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="str">
+      <c r="B215" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.6.2</v>
       </c>
-      <c r="B217" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C217" s="5" t="str">
-        <f>C216</f>
+      <c r="B216" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C216" s="4" t="str">
+        <f>C215</f>
         <v>16.6 Develop effective, accountable and transparent institutions at all levels</v>
       </c>
-      <c r="D217" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="356" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="str">
+      <c r="D216" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.7.1</v>
       </c>
-      <c r="B218" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="str">
+      <c r="B217" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.7.2</v>
       </c>
-      <c r="B219" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C219" s="5" t="str">
-        <f>C218</f>
+      <c r="B218" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C218" s="4" t="str">
+        <f>C217</f>
         <v>16.7 Ensure responsive, inclusive, participatory and representative decision-making at all levels</v>
       </c>
-      <c r="D219" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="str">
+      <c r="D218" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.8.1</v>
       </c>
-      <c r="B220" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="str">
+      <c r="B219" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="str">
         <f t="shared" si="10"/>
         <v>16.9.1</v>
       </c>
-      <c r="B221" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C221" s="5" t="s">
+      <c r="B220" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="str">
+        <f>LEFT(D221,7)</f>
+        <v>16.10.1</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C221" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D221" s="5" t="s">
+      <c r="D221" s="4" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="str">
-        <f>LEFT(D222,7)</f>
-        <v>16.10.1</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C222" s="5" t="s">
+      <c r="A222" s="2" t="str">
+        <f t="shared" ref="A222:A247" si="14">LEFT(D222,7)</f>
+        <v>16.10.2</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C222" s="4" t="str">
+        <f>C221</f>
+        <v>16.10 Ensure public access to information and protect fundamental freedoms, in accordance with national legislation and international agreements</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D222" s="5" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="223" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="str">
-        <f t="shared" ref="A223:A250" si="14">LEFT(D223,7)</f>
-        <v>16.10.2</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C223" s="5" t="str">
-        <f>C222</f>
-        <v>16.10 Ensure public access to information and protect fundamental freedoms, in accordance with national legislation and international agreements</v>
-      </c>
-      <c r="D223" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="str">
+      <c r="A223" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">16.a.1 </v>
       </c>
-      <c r="B224" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D224" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="str">
+      <c r="B223" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">16.b.1 </v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="str">
+      <c r="B224" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.1.1 </v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B225" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D225" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C226" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D226" s="5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="str">
+    </row>
+    <row r="226" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.1.2 </v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C227" s="5" t="str">
-        <f>C226</f>
+      <c r="B226" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C226" s="4" t="str">
+        <f>C225</f>
         <v>17.1 Strengthen domestic resource mobilization, including through international support to developing countries, to improve domestic capacity for tax and other revenue collection</v>
       </c>
-      <c r="D227" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="str">
+      <c r="D226" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.2.1 </v>
       </c>
-      <c r="B228" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="D228" s="5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="str">
+      <c r="B227" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.3.1 </v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="str">
+      <c r="B228" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.3.2 </v>
       </c>
-      <c r="B230" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C230" s="5" t="str">
-        <f>C229</f>
+      <c r="B229" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C229" s="4" t="str">
+        <f>C228</f>
         <v>17.3 Mobilize additional financial resources for developing countries from multiple sources</v>
       </c>
-      <c r="D230" s="5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="str">
+      <c r="D229" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.4.1 </v>
       </c>
-      <c r="B231" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="str">
+      <c r="B230" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.5.1 </v>
       </c>
-      <c r="B232" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D232" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D233" s="5"/>
-    </row>
-    <row r="234" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="str">
+      <c r="B231" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.6.1 </v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D234" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="str">
+      <c r="B232" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.7.1 </v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D235" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="289" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="str">
+      <c r="B233" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.8.1 </v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D236" s="5" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="340" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="str">
+      <c r="B234" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">17.9.1 </v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D237" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="272" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="str">
+      <c r="B235" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.10.1</v>
       </c>
-      <c r="B238" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D238" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="str">
+      <c r="B236" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.11.1</v>
       </c>
-      <c r="B239" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D239" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="str">
+      <c r="B237" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.12.1</v>
       </c>
-      <c r="B240" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D240" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="str">
+      <c r="B238" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.13.1</v>
       </c>
-      <c r="B241" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="str">
+      <c r="B239" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.14.1</v>
       </c>
-      <c r="B242" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D242" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="str">
+      <c r="B240" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.15.1</v>
       </c>
-      <c r="B243" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="372" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="str">
+      <c r="B241" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.16.1</v>
       </c>
-      <c r="B244" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D244" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="221" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="str">
+      <c r="B242" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.17.1</v>
       </c>
-      <c r="B245" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D245" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>17.18.1</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D246" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="str">
+      <c r="B243" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.18.2</v>
       </c>
-      <c r="B247" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C247" s="5" t="str">
-        <f t="shared" ref="C247:C248" si="15">C246</f>
-        <v>17.18 By 2020, enhance capacity-building support to developing countries, including for least developed countries and small island developing States, to increase significantly the availability of high-quality, timely and reliable data disaggregated by income, gender, age, race, ethnicity, migratory status, disability, geographic location and other characteristics relevant in national contexts</v>
-      </c>
-      <c r="D247" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="str">
+      <c r="B244" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.18.3</v>
       </c>
-      <c r="B248" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C248" s="5" t="str">
-        <f t="shared" si="15"/>
-        <v>17.18 By 2020, enhance capacity-building support to developing countries, including for least developed countries and small island developing States, to increase significantly the availability of high-quality, timely and reliable data disaggregated by income, gender, age, race, ethnicity, migratory status, disability, geographic location and other characteristics relevant in national contexts</v>
-      </c>
-      <c r="D248" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="255" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="str">
+      <c r="B245" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.19.1</v>
       </c>
-      <c r="B249" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="324" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="str">
+      <c r="B246" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="222" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="str">
         <f t="shared" si="14"/>
         <v>17.19.2</v>
       </c>
-      <c r="B250" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C250" s="8" t="str">
-        <f t="shared" ref="C250" si="16">C249</f>
+      <c r="B247" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C247" s="5" t="str">
+        <f t="shared" ref="C247" si="15">C246</f>
         <v>17.19 By 2030, build on existing initiatives to develop measurements of progress on sustainable development that complement gross domestic product, and support statistical capacity-building in developing countries</v>
       </c>
-      <c r="D250" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="D247" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:D247" xr:uid="{E0F22A9F-EC4A-2349-98AB-9A476462BAC7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nlp/Goal_Target_Indicator.xlsx
+++ b/nlp/Goal_Target_Indicator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidan/Desktop/qmss/Fall/G5055_Practicum_Project2-main/nlp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A347A-E401-764C-B024-DAD56E3C45DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C739C695-BC4E-3349-BAD8-E0C01DBE3D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="1500" windowWidth="25040" windowHeight="14500" xr2:uid="{D6838375-2563-8349-8A32-5CE0F9EBE89F}"/>
+    <workbookView xWindow="560" yWindow="1500" windowWidth="25040" windowHeight="14500" xr2:uid="{D6838375-2563-8349-8A32-5CE0F9EBE89F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="436">
   <si>
     <t>Goal</t>
   </si>
@@ -2533,6 +2533,12 @@
       </rPr>
       <t>) have achieved 100 per cent birth registration and 80 per cent death registration</t>
     </r>
+  </si>
+  <si>
+    <t>8.10.1</t>
+  </si>
+  <si>
+    <t>8.10.2</t>
   </si>
 </sst>
 </file>
@@ -2934,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F22A9F-EC4A-2349-98AB-9A476462BAC7}">
   <dimension ref="A1:D248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3007,7 +3013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.3.1</v>
@@ -3022,7 +3028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.4.1</v>
@@ -3037,7 +3043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.4.2</v>
@@ -3053,7 +3059,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5.1</v>
@@ -3068,7 +3074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5.2</v>
@@ -3100,7 +3106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5.4</v>
@@ -3131,7 +3137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.a.2</v>
@@ -3147,7 +3153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.b.1</v>
@@ -3240,7 +3246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.3.1</v>
@@ -3255,7 +3261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.3.2</v>
@@ -3271,7 +3277,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.4.1</v>
@@ -3286,7 +3292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.5.1</v>
@@ -3301,7 +3307,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.5.2</v>
@@ -3317,7 +3323,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.a.1</v>
@@ -3332,7 +3338,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.a.2</v>
@@ -3348,7 +3354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.b.1</v>
@@ -3363,7 +3369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.c.1</v>
@@ -3440,7 +3446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.1</v>
@@ -3455,7 +3461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.2</v>
@@ -3471,7 +3477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.3</v>
@@ -3487,7 +3493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.4</v>
@@ -3503,7 +3509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.3.5</v>
@@ -3519,7 +3525,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.4.1</v>
@@ -3534,7 +3540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.4.2</v>
@@ -3550,7 +3556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.5.1</v>
@@ -3565,7 +3571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.5.2</v>
@@ -3627,7 +3633,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.8.1</v>
@@ -3642,7 +3648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.8.2</v>
@@ -3658,7 +3664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.9.1</v>
@@ -3673,7 +3679,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.9.2</v>
@@ -3689,7 +3695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.9.3</v>
@@ -3767,7 +3773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.c.1</v>
@@ -3782,7 +3788,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.d.1</v>
@@ -3797,7 +3803,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3.d.2</v>
@@ -3813,7 +3819,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.1.1</v>
@@ -3905,7 +3911,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.5.1</v>
@@ -3965,7 +3971,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
         <f t="shared" ref="A67:A127" si="6">LEFT(D67,5)</f>
         <v>4.b.1</v>
@@ -3980,7 +3986,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
         <f t="shared" si="6"/>
         <v>4.c.1</v>
@@ -4072,7 +4078,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.4.1</v>
@@ -4149,7 +4155,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.a.1</v>
@@ -4180,7 +4186,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
         <f t="shared" si="6"/>
         <v>5.b.1</v>
@@ -4225,7 +4231,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.2.1</v>
@@ -4240,7 +4246,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.3.1</v>
@@ -4255,7 +4261,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.3.2</v>
@@ -4271,7 +4277,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.4.1</v>
@@ -4286,7 +4292,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.4.2</v>
@@ -4348,7 +4354,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.a.1</v>
@@ -4363,7 +4369,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="str">
         <f t="shared" si="6"/>
         <v>6.b.1</v>
@@ -4439,7 +4445,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
         <f t="shared" si="6"/>
         <v>7.a.1</v>
@@ -4454,7 +4460,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
         <f t="shared" si="6"/>
         <v>7.b.1</v>
@@ -4499,7 +4505,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.3.1</v>
@@ -4621,7 +4627,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.8.2</v>
@@ -4653,9 +4659,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>8.10.</v>
+      <c r="A112" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>160</v>
@@ -4668,9 +4673,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>8.10.</v>
+      <c r="A113" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>160</v>
@@ -4683,7 +4687,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
         <f t="shared" si="6"/>
         <v>8.a.1</v>
@@ -4728,7 +4732,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.1.2</v>
@@ -4775,7 +4779,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.3.1</v>
@@ -4790,7 +4794,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.3.2</v>
@@ -4806,7 +4810,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.4.1</v>
@@ -4852,7 +4856,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.a.1</v>
@@ -4867,7 +4871,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="289" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
         <f t="shared" si="6"/>
         <v>9.b.1</v>
@@ -4942,7 +4946,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.4.1</v>
@@ -4957,7 +4961,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.4.2</v>
@@ -4973,7 +4977,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.5.1</v>
@@ -4988,7 +4992,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.6.1</v>
@@ -5003,7 +5007,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.7.1</v>
@@ -5018,7 +5022,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.7.2</v>
@@ -5034,7 +5038,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.7.3</v>
@@ -5050,7 +5054,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.7.4</v>
@@ -5066,7 +5070,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.a.1</v>
@@ -5081,7 +5085,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
         <f t="shared" si="7"/>
         <v>10.b.1</v>
@@ -5126,7 +5130,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.2.1</v>
@@ -5141,7 +5145,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.3.1</v>
@@ -5156,7 +5160,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.3.2</v>
@@ -5187,7 +5191,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.5.1</v>
@@ -5202,7 +5206,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="356" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.5.2</v>
@@ -5218,7 +5222,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.6.1</v>
@@ -5249,7 +5253,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.7.1</v>
@@ -5264,7 +5268,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.7.2</v>
@@ -5280,7 +5284,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
         <f t="shared" si="7"/>
         <v>11.a.1</v>
